--- a/graph_generation/results_prelim/hermes_llama2/level_10/k_0.xlsx
+++ b/graph_generation/results_prelim/hermes_llama2/level_10/k_0.xlsx
@@ -31,46 +31,54 @@
     <t>evaluator_partial_correctness</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-What is the least cost path to travel first from node 0 to node N, and then from node node N to node 19? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T
- A 0 5 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- B 5 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 4 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 1 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 1
- G 0 0 0 0 0 4 0 5 0 1 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 5 0 2 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 1 0 0 0 0 0 0 0 4 5 0 0 0 0
- K 1 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 5 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 5 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 4 0 0 0 5 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 5 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1
- T 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 13 nodes labelled A to M. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node A to node G, and then from node node G to node M? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M
+ A 0 2 0 0 0 0 0 0 3 0 0 0 3
+ B 2 0 1 2 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 0 0 0 0 0 0 0 0
+ D 0 2 0 0 5 1 0 0 0 0 0 0 0
+ E 0 0 0 5 0 0 0 0 0 0 0 0 0
+ F 0 0 0 1 0 0 5 0 0 0 0 0 0
+ G 0 0 0 0 0 5 0 3 0 0 0 0 0
+ H 0 0 0 0 0 0 3 0 0 0 0 0 0
+ I 3 0 0 0 0 0 0 0 0 2 1 0 0
+ J 0 0 0 0 0 0 0 0 2 0 0 0 0
+ K 0 0 0 0 0 0 0 0 1 0 0 5 0
+ L 0 0 0 0 0 0 0 0 0 0 5 0 1
+ M 3 0 0 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t>Path from A to N: A -&gt; K -&gt; L -&gt; M -&gt; N
-Path from N to T: N -&gt; O -&gt; J -&gt; G -&gt; F -&gt; T</t>
-  </si>
-  <si>
-    <t>To find the least cost path to travel first from node 0 to node N, and then from node node N to node 19, we can use Dijkstra's algorithm. Here's the step-by-step process:
-1. Initialize the distance array for all nodes to infinity, except for the starting node (node 0), which is set to 0.
-2. Set the current node as the starting node (node 0).
-3. For each neighbor of the current node, calculate the tentative distance through the current node to the neighbor. If this distance is less than the current known distance to the neighbor, update the known distance.
-4. Mark the current node as visited.
-5. Select the unvisited node with the smallest known distance as the new current node and repeat steps 3-5 until all nodes have been visited or the target node (node 19) has been visited.
-Following these steps, we get the following sequences of nodes:
-0 -&gt; N -&gt; 19: A -&gt; L -&gt; S -&gt; 19
-0 -&gt; N -&gt; 19: A -&gt; L -&gt; S -&gt; 19
-Note that the second sequence is the same as the first one, which means there is only one possible path between the two nodes.</t>
+    <t>Path from A to G: A -&gt; B -&gt; D -&gt; F -&gt; G
+Path from G to M: G -&gt; F -&gt; D -&gt; B -&gt; A -&gt; M</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node A to node G and then from node G to node M, we can use Dijkstra's algorithm. Here are the steps:
+1. Create a set of unvisited nodes and initialize the distance to the starting node (A) to 0 and the distance to all other nodes to infinity.
+2. Select the node with the smallest distance (A) and mark it as visited.
+3. Update the distances to its neighbors (B and E) by adding the edge weight to the current distance. If the new distance is smaller than the previous distance, update the distance.
+4. Repeat steps 2-3 until all nodes are visited or the target node (G) is visited.
+Following these steps, we get the following distances:
+A: 0
+B: 2
+C: 1
+D: 5
+E: 5
+F: 6
+G: 8
+H: 5
+I: 5
+J: 5
+K: 8
+L: 8
+M: 8
+Now, we can find the path from A to G and from G to M:
+Path from A to G: A -&gt; B -&gt; F -&gt; G
+Distance: 2 + 6 + 8 = 16
+Path from G to M: G -&gt; H -&gt; I -&gt; M
+Distance: 8 + 5 + 1 = 14
+So, the least cost path is A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; M with a total distance of 14.</t>
   </si>
   <si>
     <t>Wrong</t>
